--- a/output.xlsx
+++ b/output.xlsx
@@ -14,45 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>price_site1</t>
-  </si>
-  <si>
-    <t>price_site2</t>
-  </si>
-  <si>
-    <t>recommendation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Price_site1</t>
+  </si>
+  <si>
+    <t>Price_site2</t>
+  </si>
+  <si>
+    <t>Recommendation</t>
   </si>
   <si>
     <t>Infinix Hot 30</t>
   </si>
   <si>
-    <t>Infinix Smart 7</t>
-  </si>
-  <si>
-    <t>Infinix Hot 12</t>
-  </si>
-  <si>
     <t>36,999</t>
   </si>
   <si>
-    <t>24,099</t>
-  </si>
-  <si>
-    <t>42,699</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 4,500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 21,999</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33,000</t>
   </si>
   <si>
     <t>Site 2</t>
@@ -413,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -438,41 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
